--- a/data/trans_dic/P23_1_2016_2023_R2-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_1_2016_2023_R2-Estudios-trans_dic.xlsx
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2858356916451354</v>
+        <v>0.2860060965104403</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.272761352555575</v>
+        <v>0.2703393613683205</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.03562209962044103</v>
+        <v>0.03584046745417304</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.04564145196015874</v>
+        <v>0.04648301620819962</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1480805302810278</v>
+        <v>0.1494363849081278</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1451737106373851</v>
+        <v>0.1429180459191234</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3515639215146494</v>
+        <v>0.3503347367961252</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3401463737589149</v>
+        <v>0.3424383371182965</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.06400823434520329</v>
+        <v>0.06576801859127544</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.07311057321418682</v>
+        <v>0.07420357265994229</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1837108788032824</v>
+        <v>0.185281480257506</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1773711810484316</v>
+        <v>0.1788688737002833</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.1450172825356779</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.1263022663391449</v>
+        <v>0.1263022663391448</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1548021147756254</v>
+        <v>0.1550564897224343</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1335217792920857</v>
+        <v>0.1345595264856962</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1037778172033894</v>
+        <v>0.1019783493906942</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.09194326666865531</v>
+        <v>0.09004438765062989</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1337117696695412</v>
+        <v>0.1345135444821016</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1173734830716485</v>
+        <v>0.1169706142986151</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1887394471124061</v>
+        <v>0.1892902906893175</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1653041252645396</v>
+        <v>0.1656608369897881</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1330693325017355</v>
+        <v>0.1323457343222164</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1137157793850619</v>
+        <v>0.1136900884291156</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.1551356051654509</v>
+        <v>0.1576884501980387</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1355583104639325</v>
+        <v>0.1361971312515527</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1520240227516661</v>
+        <v>0.1511268411275891</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1802286693018677</v>
+        <v>0.1805180108871551</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1595329296855944</v>
+        <v>0.157327320730741</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1090307047984934</v>
+        <v>0.1097614842862299</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1656244862855928</v>
+        <v>0.1642704097927226</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1526680810430189</v>
+        <v>0.1528931992186701</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.223591585398487</v>
+        <v>0.2235967184934348</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2428190715284501</v>
+        <v>0.2470502147762926</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2270909960369442</v>
+        <v>0.2273463796782565</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1523554846865758</v>
+        <v>0.1515360208740199</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2159620769285711</v>
+        <v>0.213944517818678</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1911699763798279</v>
+        <v>0.1891662014493981</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>0.1092082246873889</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.09811331401675494</v>
+        <v>0.09811331401675495</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1571056638606146</v>
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1929393247530498</v>
+        <v>0.1930412286009688</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1741905727987169</v>
+        <v>0.1738952057791189</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09913589514062984</v>
+        <v>0.09794626446716953</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.09023337443500365</v>
+        <v>0.09029478285336535</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1480403832813421</v>
+        <v>0.1478043712383265</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1338570110360959</v>
+        <v>0.1345659503261752</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2221127962581367</v>
+        <v>0.221489513189711</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2003309261191627</v>
+        <v>0.2002216073431826</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.121382571091102</v>
+        <v>0.1194751370251938</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1074574517766744</v>
+        <v>0.1070117830201517</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1653521604615193</v>
+        <v>0.1657696097102806</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.149854196189578</v>
+        <v>0.150042758535453</v>
       </c>
     </row>
     <row r="16">
@@ -1108,22 +1108,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>215372</v>
+        <v>215500</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>157800</v>
+        <v>156399</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>35347</v>
+        <v>35563</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>37519</v>
+        <v>38211</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>258511</v>
+        <v>260878</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>203326</v>
+        <v>200166</v>
       </c>
     </row>
     <row r="7">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>264897</v>
+        <v>263971</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>196785</v>
+        <v>198111</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>63513</v>
+        <v>65259</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>60100</v>
+        <v>60998</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>320713</v>
+        <v>323455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>248420</v>
+        <v>250518</v>
       </c>
     </row>
     <row r="8">
@@ -1216,22 +1216,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>321429</v>
+        <v>321957</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>297532</v>
+        <v>299845</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>206122</v>
+        <v>202548</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>199515</v>
+        <v>195395</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>543213</v>
+        <v>546470</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>516247</v>
+        <v>514475</v>
       </c>
     </row>
     <row r="11">
@@ -1242,22 +1242,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>391896</v>
+        <v>393040</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>368354</v>
+        <v>369149</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>264300</v>
+        <v>262863</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>246761</v>
+        <v>246706</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>630249</v>
+        <v>640620</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>596230</v>
+        <v>599040</v>
       </c>
     </row>
     <row r="12">
@@ -1324,22 +1324,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>82977</v>
+        <v>82487</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>128248</v>
+        <v>128454</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>87458</v>
+        <v>86249</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>79856</v>
+        <v>80391</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>181198</v>
+        <v>179716</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>220453</v>
+        <v>220778</v>
       </c>
     </row>
     <row r="15">
@@ -1350,22 +1350,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>122039</v>
+        <v>122042</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>172787</v>
+        <v>175798</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>124494</v>
+        <v>124634</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>111587</v>
+        <v>110987</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>236268</v>
+        <v>234061</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>276050</v>
+        <v>273156</v>
       </c>
     </row>
     <row r="16">
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>651302</v>
+        <v>651646</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>612882</v>
+        <v>611843</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>349619</v>
+        <v>345423</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>336068</v>
+        <v>336297</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1021826</v>
+        <v>1020196</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>969512</v>
+        <v>974647</v>
       </c>
     </row>
     <row r="19">
@@ -1458,22 +1458,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>749782</v>
+        <v>747678</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>704856</v>
+        <v>704472</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>428075</v>
+        <v>421348</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>400218</v>
+        <v>398558</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>1141317</v>
+        <v>1144199</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>1085378</v>
+        <v>1086744</v>
       </c>
     </row>
     <row r="20">
